--- a/jpcore-r4b/develop/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4b/develop/StructureDefinition-jp-patient.xlsx
@@ -762,7 +762,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").  
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration).
 IDが使われていた/使われている期間。</t>
   </si>
   <si>
@@ -1039,7 +1039,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration).  
 連絡先が使用されていた/されている期間</t>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4B/datatypes.html#Duration).  
 住所が使用されていた/されている期間。  
 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  
 期間は、時間間隔（経過時間の測定値）には使用されない。</t>
